--- a/utils/App Port.xlsx
+++ b/utils/App Port.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Workspaces\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AA073-B2A2-4A2A-8EEB-3DE3C934D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865F507-4C08-446A-8038-F8DFC51E61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{296C7D7C-F9D1-4B7E-A07F-843018EE1373}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>APP</t>
   </si>
   <si>
@@ -96,13 +93,19 @@
     <t>Payment DB</t>
   </si>
   <si>
-    <t>User DB</t>
-  </si>
-  <si>
     <t>Vocasia DB</t>
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Instructor DB</t>
+  </si>
+  <si>
+    <t>Authentication DB</t>
   </si>
 </sst>
 </file>
@@ -156,13 +159,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D464D514-C82A-413B-8B84-0BBC3B8B47B2}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,18 +505,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>8071</v>
@@ -524,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>8072</v>
@@ -535,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>8073</v>
@@ -545,11 +548,11 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -589,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>8004</v>
@@ -622,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>8007</v>
@@ -633,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>8008</v>
@@ -644,27 +647,27 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>8009</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
         <v>3306</v>
       </c>
     </row>
@@ -673,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>3307</v>
@@ -684,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>3308</v>
@@ -695,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>3309</v>
@@ -706,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>3310</v>
@@ -717,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>3311</v>
@@ -728,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>3312</v>
@@ -739,15 +742,26 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>3313</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>3314</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:B16">
-    <sortCondition ref="B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B20:B27">
+    <sortCondition ref="B20:B27"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A2:C2"/>
